--- a/results/powerVsRpm/meanPowerVSrpm.xlsx
+++ b/results/powerVsRpm/meanPowerVSrpm.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbh/Documents/Waves/results/powerVsRpm/"/>
@@ -384,11 +384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413023472"/>
-        <c:axId val="413011296"/>
+        <c:axId val="444129616"/>
+        <c:axId val="444131664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413023472"/>
+        <c:axId val="444129616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,6 +408,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -444,12 +445,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413011296"/>
+        <c:crossAx val="444131664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413011296"/>
+        <c:axId val="444131664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413023472"/>
+        <c:crossAx val="444129616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1114,16 +1115,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1408,10 +1409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
